--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/136.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/136.xlsx
@@ -479,13 +479,13 @@
         <v>-20.17966110024386</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.11127984462403</v>
+        <v>-9.281398044395536</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.099827980766048</v>
+        <v>-3.016508565481304</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.992457646273726</v>
+        <v>-5.946330280008446</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.85145231903698</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.40843584222268</v>
+        <v>-9.562489786407395</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.022491747879972</v>
+        <v>-3.028684407124109</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.968917685764302</v>
+        <v>-5.905050249148484</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.39221945077371</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.23589556642545</v>
+        <v>-10.38663715799121</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.800721230043974</v>
+        <v>-2.866693344063432</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.841411748388732</v>
+        <v>-5.78653872382518</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.83091978411551</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.96204705123895</v>
+        <v>-11.12762222192438</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.792748017613363</v>
+        <v>-2.800786691558183</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.09291488597829</v>
+        <v>-6.014580454722364</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.14508939496197</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.83349691298992</v>
+        <v>-11.94802519489546</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.572915160597941</v>
+        <v>-2.637617321241751</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.595525208718275</v>
+        <v>-5.549816796143931</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.35139684210078</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.50654601747737</v>
+        <v>-12.63250387976374</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.509626968661037</v>
+        <v>-2.589856600475134</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.670714303938308</v>
+        <v>-5.65524911092835</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.45051820948544</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.09977135153882</v>
+        <v>-13.16824091204717</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.420743324668559</v>
+        <v>-2.476830750042513</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.136679271024302</v>
+        <v>-5.177576441747975</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.46241521818403</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.10989488498936</v>
+        <v>-14.16158011325461</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.256906246907199</v>
+        <v>-2.256971708421407</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.918705521012404</v>
+        <v>-5.020665192189888</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.41433315745976</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.85527896267735</v>
+        <v>-14.91441371125954</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.220156152830473</v>
+        <v>-2.237189238827559</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.544776259549866</v>
+        <v>-4.639810102524077</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.33842414073784</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.57282880452383</v>
+        <v>-15.59792356571754</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.00592680143131</v>
+        <v>-2.040935619230086</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.302097334075632</v>
+        <v>-4.411205402604698</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.28957004591069</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.22647511619984</v>
+        <v>-16.25251252319816</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.169371110107418</v>
+        <v>-2.091720661953141</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.78849938589756</v>
+        <v>-3.881922875622238</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.30767686946827</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.19196698926293</v>
+        <v>-17.23381989809405</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.942979009368291</v>
+        <v>-1.896867918759732</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.096715196043596</v>
+        <v>-3.243790942813668</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.45731230430995</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.78393546225158</v>
+        <v>-17.83634076717313</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.694081240044237</v>
+        <v>-1.62940526400611</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.849689626025909</v>
+        <v>-2.925909829816559</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.773272018646027</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.71739047026096</v>
+        <v>-18.74205318546089</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.566941887148235</v>
+        <v>-1.483439179623706</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.258375768179351</v>
+        <v>-2.338143986040109</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.283094294176843</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.64931367883786</v>
+        <v>-19.64639091195028</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.388519984021192</v>
+        <v>-1.320112701673173</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.796623339254514</v>
+        <v>-1.944065670504154</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.9949106939724</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.44436995350736</v>
+        <v>-20.44398709337107</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.233441656860947</v>
+        <v>-1.110858425353866</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.325653929129102</v>
+        <v>-1.43363605961378</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.893161292139119</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.40715171988221</v>
+        <v>-21.40845776681251</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.124579158731994</v>
+        <v>-1.022105704389805</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.932753920848903</v>
+        <v>-1.074147608185666</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.957867298535287</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.25885838894786</v>
+        <v>-22.24823734798935</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.048578340735775</v>
+        <v>-0.9004389340816441</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.598284860151327</v>
+        <v>-0.7021429152408611</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.146844923386515</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97580598486362</v>
+        <v>-22.90920225695388</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8471401692129773</v>
+        <v>-0.66223757617928</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.262990984374722</v>
+        <v>-0.3611800723337891</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.427874827723038</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.57943969968425</v>
+        <v>-23.52825870452206</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5979936461349302</v>
+        <v>-0.3747698826835008</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8930679675817523</v>
+        <v>-0.01465300071898355</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.755329111923901</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.2738554424094</v>
+        <v>-24.1836070155675</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.479377382388892</v>
+        <v>-0.1786340938116026</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6473123509397124</v>
+        <v>0.08509725463212736</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.09172394790807</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.67407404797812</v>
+        <v>-24.63442737161949</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4270998171418799</v>
+        <v>-0.1010098302630087</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4689559093268781</v>
+        <v>0.3124320011758588</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.40192810358432</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.1458813654854</v>
+        <v>-25.0422002359279</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4590974052870584</v>
+        <v>-0.1328110338655613</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.4136540221234272</v>
+        <v>0.3074438337931612</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.65066983631903</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.39214758193827</v>
+        <v>-25.30717535314159</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1448035832685824</v>
+        <v>0.1715457302960446</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3963067208581402</v>
+        <v>0.2969307146112551</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.81680298616341</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.42029603304798</v>
+        <v>-25.30529006153238</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1941877495875731</v>
+        <v>0.1586629042997861</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.563115751364572</v>
+        <v>0.1384745733178445</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.88075997207024</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.45699375791334</v>
+        <v>-25.28583489950958</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3830442180794716</v>
+        <v>-0.03824533043977393</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.5246243810098974</v>
+        <v>0.1484247234775564</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.84167021979487</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.49507926687992</v>
+        <v>-25.36560630072421</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1536277953839058</v>
+        <v>0.1271890082682767</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.8396382796846683</v>
+        <v>-0.1446333833316399</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.70192932274649</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.60765997901592</v>
+        <v>-25.42842316975882</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2160126184247305</v>
+        <v>0.07487216611273931</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8859981240472203</v>
+        <v>-0.2235537848615647</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.47897806212346</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.33162186590097</v>
+        <v>-25.19587768668407</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3033775552875685</v>
+        <v>-0.0379834843829394</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.009249062999229</v>
+        <v>-0.3966209361263416</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.19431204663084</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.92913829194063</v>
+        <v>-24.74706045296686</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3112460292954459</v>
+        <v>-0.04288000564574496</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.533059007393848</v>
+        <v>-0.8972705967939465</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.869783883219799</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.02060111959292</v>
+        <v>-24.7996915103906</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.2129882964682918</v>
+        <v>0.02260769316856884</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.722190414245423</v>
+        <v>-1.023873165273437</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.532922117594753</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.5952191079624</v>
+        <v>-24.40109635037425</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2577508798841532</v>
+        <v>-0.03349282450822736</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.223756536111948</v>
+        <v>-1.516510336601906</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.201629824632301</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.94620747149236</v>
+        <v>-23.79018331517363</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2824298707408068</v>
+        <v>-0.1236464218763531</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.23628586993148</v>
+        <v>-1.575805376172083</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.898868322882153</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.5887745116104</v>
+        <v>-23.44404901264408</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4821136736828128</v>
+        <v>-0.3189050264578556</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.397530671730178</v>
+        <v>-1.675175954740784</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.634723923159859</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.77489150545449</v>
+        <v>-22.68524532454332</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5695571643627012</v>
+        <v>-0.4289458318425632</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.55918133491697</v>
+        <v>-1.861021193579086</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.42436216877198</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.97339381778687</v>
+        <v>-21.8907782035017</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.525069519306516</v>
+        <v>-0.3683153773825298</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.734984777475668</v>
+        <v>-2.003661833039691</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.268965530284191</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.61801634945105</v>
+        <v>-21.4996980253165</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.573628870546478</v>
+        <v>-0.4306871081205128</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.012711797657203</v>
+        <v>-2.266319612650399</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.167069284452989</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.95134319644752</v>
+        <v>-20.85162903465106</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5368656841669113</v>
+        <v>-0.3347205282906607</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.206006556812446</v>
+        <v>-2.434136750475644</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.116009750745192</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.55369068223578</v>
+        <v>-20.48750590801697</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6916297960589551</v>
+        <v>-0.5660615195039603</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.387439689593086</v>
+        <v>-2.651534439162506</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.105541196709002</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.89525258771969</v>
+        <v>-19.90582798506193</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5037814348858695</v>
+        <v>-0.3234218709382511</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.317173300241543</v>
+        <v>-2.534240498003482</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.132391260743354</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.40536479998798</v>
+        <v>-19.36935778381936</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2586018795688654</v>
+        <v>-0.0823794833192325</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.447978497933228</v>
+        <v>-2.586583524764703</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.185515655433738</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.48633750971018</v>
+        <v>-18.46591033392321</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2178586331254138</v>
+        <v>-0.07126411820660707</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.445765898752976</v>
+        <v>-2.528636992387223</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.263559745730733</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.14564960516278</v>
+        <v>-18.14483469903272</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1696658663650202</v>
+        <v>-0.02794168810333551</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.685695440630448</v>
+        <v>-2.733544624163078</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.361118169598234</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.56134012933655</v>
+        <v>-17.6039262071268</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1959552104712061</v>
+        <v>-0.05152092552128416</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.757454352505949</v>
+        <v>-2.784054728526457</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.477173524150039</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08743804337459</v>
+        <v>-17.17066262918556</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1195485310868928</v>
+        <v>0.009436836509792415</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.551407690382864</v>
+        <v>-2.665883603077038</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.617505775746336</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.39756532973552</v>
+        <v>-16.50020580066077</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1786995553258112</v>
+        <v>-0.01767732267542227</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.94284136074479</v>
+        <v>-3.012986736016879</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.780738942331039</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.72975314638476</v>
+        <v>-15.84251396740666</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1229394375228999</v>
+        <v>0.002799038969037299</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.780313513267602</v>
+        <v>-2.918146094231415</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.978706824974862</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.05887736416903</v>
+        <v>-15.25665959984511</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.04007825283761558</v>
+        <v>0.1067388312295005</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.098823056801114</v>
+        <v>-3.165354956488887</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.213739066050044</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.3200394379019</v>
+        <v>-14.55822452014755</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01098172824511609</v>
+        <v>0.2180888668983808</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.069993805943633</v>
+        <v>-3.116991989791551</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.494898257707385</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.5040223863828</v>
+        <v>-13.74423677556891</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04897559109180514</v>
+        <v>0.2366275677222649</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.26619505632974</v>
+        <v>-3.238750406219603</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.822704227962154</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.92628524658311</v>
+        <v>-13.15073650314778</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1098286147001479</v>
+        <v>0.306684480228341</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.129786353021796</v>
+        <v>-3.210340109053058</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.19507231792475</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.23501165653997</v>
+        <v>-12.50719744926558</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1955831983134537</v>
+        <v>0.367197103962799</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.197643758650463</v>
+        <v>-3.250572755685682</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.6105705405959</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.83962411071985</v>
+        <v>-12.12890845095675</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03276732017374827</v>
+        <v>0.257077744761041</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.420592583742216</v>
+        <v>-3.404263298744704</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.05173211866826</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.2078681293952</v>
+        <v>-11.60850250530098</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.09380906370005936</v>
+        <v>0.0506121289470209</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.813649699656516</v>
+        <v>-3.860660975807275</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.51629260204836</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.78010331864748</v>
+        <v>-11.18444281625747</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1267492976498421</v>
+        <v>0.08445573179288279</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.952585217412913</v>
+        <v>-3.955462340684214</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.98552797175135</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.99971042316072</v>
+        <v>-10.41957739194099</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.162360361379337</v>
+        <v>0.02958589058320884</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.398063913905484</v>
+        <v>-4.344146627449377</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.45283164119313</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.7441093947817</v>
+        <v>-10.14422007857381</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.325673747027028</v>
+        <v>-0.144201337337863</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.384591934281348</v>
+        <v>-4.369571879568009</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.90530974797742</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.11448745882025</v>
+        <v>-9.557645634355957</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2789996873962746</v>
+        <v>-0.08024543795603115</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.705693753777521</v>
+        <v>-4.660574494831055</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.33615456678703</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.820774736868968</v>
+        <v>-9.205986380027195</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3752542978886447</v>
+        <v>-0.1915561967163862</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.567321205043318</v>
+        <v>-4.559816132161131</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.74102258466073</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.240955920917445</v>
+        <v>-8.661215658782973</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3991608428776364</v>
+        <v>-0.216798156595234</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.938487990606252</v>
+        <v>-4.943368236212337</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.10940988115045</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.763754574639371</v>
+        <v>-8.175046085058316</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3443695554850129</v>
+        <v>-0.1762512946944084</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.975997438247798</v>
+        <v>-4.947898172995575</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.44370465513802</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.318249693541116</v>
+        <v>-7.725665882318911</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3542673364333578</v>
+        <v>-0.1936116882625372</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.955507984300496</v>
+        <v>-4.931362594506474</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.73196069790897</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.969195807477858</v>
+        <v>-7.364724185275366</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5001548669987114</v>
+        <v>-0.352774813909401</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.124032106479194</v>
+        <v>-5.129488413410315</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.97670339738668</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.618073337565606</v>
+        <v>-7.008809932523042</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4163117596002976</v>
+        <v>-0.2905601908055187</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.350319468795588</v>
+        <v>-5.394777745892211</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.1703262002461</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.358963572025005</v>
+        <v>-6.761535608751362</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5408850211393211</v>
+        <v>-0.408456377895262</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.282056201778828</v>
+        <v>-5.364901110807391</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.31637419280985</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.193974371613574</v>
+        <v>-6.595499024112592</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6378335236823027</v>
+        <v>-0.4904796551986758</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.366815770376163</v>
+        <v>-5.463747997262423</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.41312340985593</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.910198707519161</v>
+        <v>-6.320416649105085</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6000360453782395</v>
+        <v>-0.4377569516550449</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.313137328725086</v>
+        <v>-5.443009789561129</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.46321338539556</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.811639851726647</v>
+        <v>-6.193238019300559</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9046284709909965</v>
+        <v>-0.7222788770114358</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.329921660968179</v>
+        <v>-5.494318524397854</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.47144527857771</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.628688011816367</v>
+        <v>-5.99452304676884</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7927809278141307</v>
+        <v>-0.6460685821697484</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.145582036956675</v>
+        <v>-5.338048797679011</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.43458444666736</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.564640466314644</v>
+        <v>-5.893738499493232</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8673285001949189</v>
+        <v>-0.7182071708276591</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.038565553528406</v>
+        <v>-5.269929545993511</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.36267359259634</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.585863089221081</v>
+        <v>-5.894458576149527</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.005465387477971</v>
+        <v>-0.8410784329972582</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.820015742191473</v>
+        <v>-5.118543248234633</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.2539277809819</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.644791544311691</v>
+        <v>-5.944968680512907</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.071424409194587</v>
+        <v>-0.8847412629744146</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.663444892507271</v>
+        <v>-4.933797762835035</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.11930249041878</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.86353774019125</v>
+        <v>-6.167053413617106</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9462619940276854</v>
+        <v>-0.7696468286928008</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.502016798468789</v>
+        <v>-4.798462628360113</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.95677231414345</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.030674078268724</v>
+        <v>-6.352492791067315</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.303878246149433</v>
+        <v>-1.098041060871816</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.334199660643544</v>
+        <v>-4.631313197979797</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.77793617975233</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.488865400820612</v>
+        <v>-6.836122458040675</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.242540807335946</v>
+        <v>-1.027604471583329</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.076687156049634</v>
+        <v>-4.432585133145237</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.58484734439473</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.897135772636998</v>
+        <v>-7.286091814407959</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.318017933218497</v>
+        <v>-1.087122080301816</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.028730050740392</v>
+        <v>-4.360747667452686</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.38117010257175</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.493477074774779</v>
+        <v>-7.882825885630991</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.354938227232165</v>
+        <v>-1.150122241576202</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.687976684678787</v>
+        <v>-3.984527252992845</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.17756976478315</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.903292338326487</v>
+        <v>-8.298925454546728</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.39282735165612</v>
+        <v>-1.139740045422713</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.556189564273972</v>
+        <v>-3.826162757819327</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.97548810012038</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.338100808003052</v>
+        <v>-8.759316283976027</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.490836330729281</v>
+        <v>-1.292618865705549</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.205734801806649</v>
+        <v>-3.467315829230457</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.7866308933246</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.21236551486499</v>
+        <v>-9.661690165039154</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.495038959941475</v>
+        <v>-1.251810157747888</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.224404425658951</v>
+        <v>-3.463361953772256</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.60908135991519</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.93825515362165</v>
+        <v>-10.43932058462632</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.587365879581327</v>
+        <v>-1.334815357764432</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.009481182209175</v>
+        <v>-3.269045994995357</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.45334366258104</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.71284815894954</v>
+        <v>-11.24924971532401</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.72376149058643</v>
+        <v>-1.465411078610649</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.698421158992605</v>
+        <v>-2.922414184957818</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.31746660499047</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.91473465212283</v>
+        <v>-12.4392091206085</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.794184987572074</v>
+        <v>-1.533085191999531</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.549928260161749</v>
+        <v>-2.783112082721853</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.20573534229564</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.77465019507024</v>
+        <v>-13.32947262154303</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.841422016225022</v>
+        <v>-1.609282394538377</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.215197353407338</v>
+        <v>-2.454495281394529</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.12130134579282</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.86876085125045</v>
+        <v>-14.4760048583015</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.027804039479834</v>
+        <v>-1.801804707825959</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.967045845345262</v>
+        <v>-2.196262700144323</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.06027556317107</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.91321240275198</v>
+        <v>-15.54827755334171</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.055206229327567</v>
+        <v>-1.84148747773923</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.522195579389094</v>
+        <v>-1.774860748577687</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.0274465587539</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.29628327495193</v>
+        <v>-16.94891829595525</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.972318860036599</v>
+        <v>-1.812802242213009</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.269042811641479</v>
+        <v>-1.477953504733023</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.01454308734202</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.90105920347366</v>
+        <v>-18.59284020997374</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.207194773017165</v>
+        <v>-2.039259804466345</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.085816033371522</v>
+        <v>-1.293915003686879</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.02293061176142</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.46448963962122</v>
+        <v>-20.18000699117335</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.401720208639531</v>
+        <v>-2.261017229999501</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.814268580131282</v>
+        <v>-1.009615647478798</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.03943326946294</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.10894833805622</v>
+        <v>-21.93558006382608</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.536989881600245</v>
+        <v>-2.447922945367982</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.952195990568866</v>
+        <v>-1.152649056024655</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.0605822254329</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.73213204437342</v>
+        <v>-23.60996776655727</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.656614252665095</v>
+        <v>-2.543156356238697</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.748519035260134</v>
+        <v>-0.95426139106398</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.07609069915914</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.82771222182578</v>
+        <v>-25.70854608136039</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.744542158550128</v>
+        <v>-2.684278288569663</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.723407998409703</v>
+        <v>-0.9338897678422543</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.072126540396</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.02291173160083</v>
+        <v>-27.93887223965979</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.585640878960099</v>
+        <v>-2.544059725134777</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.793333987887362</v>
+        <v>-1.050620739979084</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-13.04445944080986</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.2689486533103</v>
+        <v>-30.21299215096477</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.015775396522167</v>
+        <v>-3.009556552672347</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.161960866699001</v>
+        <v>-1.401913409828278</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.9790268660487</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.50267881034856</v>
+        <v>-32.42781702269956</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.993217358725873</v>
+        <v>-3.051635214005655</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.427001445426904</v>
+        <v>-1.651531255808627</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.87725607927943</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.75281362284748</v>
+        <v>-34.65579965879029</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.245231096126258</v>
+        <v>-3.36516968245931</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.588324801042652</v>
+        <v>-1.845258060957648</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.72920691760306</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24756502164123</v>
+        <v>-37.16861843550562</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.494914403620816</v>
+        <v>-3.615861097272681</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.053756167066014</v>
+        <v>-2.273363271579248</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.54879622766138</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67060987777084</v>
+        <v>-39.66456123385797</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.43957323950884</v>
+        <v>-3.541549186343044</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.537857156941677</v>
+        <v>-2.739842021829948</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.33629999932363</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.23735584989124</v>
+        <v>-42.23054785241354</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.616122943329516</v>
+        <v>-3.721044658303108</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.805791134597601</v>
+        <v>-3.052185090725007</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.11533707989124</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53773892069672</v>
+        <v>-44.52079748081952</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.812167086081522</v>
+        <v>-3.938376885475761</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.294081661382616</v>
+        <v>-3.616803743077285</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.88932192865493</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86239512097075</v>
+        <v>-46.83990254468867</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.928243443076265</v>
+        <v>-4.080755678879532</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.603033823841669</v>
+        <v>-3.913724079224791</v>
       </c>
     </row>
   </sheetData>
